--- a/biology/Zoologie/Brachinus/Brachinus.xlsx
+++ b/biology/Zoologie/Brachinus/Brachinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachinus est un genre d’insectes coléoptères de la famille des carabidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Brachinus sont des bombardiers, c'est-à-dire des insectes ayant la capacité de projeter (à plusieurs reprises parfois) bruyamment sur leurs prédateurs (fourmis…) un liquide et/ou aérosol corrosif et chaud (aux environs de 100 °C[1]) ; mélange d'hydroquinones et de peroxyde d'hydrogène[2]. Quand les individus de l'espèce asiatique Pheropsophus jessoensis sont brutalement avalés par un prédateur (crapaud par exemple). Ce dernier est souvent obligé de les recracher après que l'insecte a projeté son liquide dans l'estomac du prédateur[3]. Lors d'une expérimentation faite avec deux espèces de crapauds asiatiques (Bufo japonicus et B. torrenticola) 43 % des carabidés attrapés par les crapauds ont été vomis peu après avoir été avalés et pour certains ont survécu (malgré un bain de plusieurs dizaines de minutes dans le suc digestif du crapaud)[4]. Quelques espèces d'amphibiens (ex : Rhinella marina semblent immunisés contre cette défense thermo-chimique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Brachinus sont des bombardiers, c'est-à-dire des insectes ayant la capacité de projeter (à plusieurs reprises parfois) bruyamment sur leurs prédateurs (fourmis…) un liquide et/ou aérosol corrosif et chaud (aux environs de 100 °C) ; mélange d'hydroquinones et de peroxyde d'hydrogène. Quand les individus de l'espèce asiatique Pheropsophus jessoensis sont brutalement avalés par un prédateur (crapaud par exemple). Ce dernier est souvent obligé de les recracher après que l'insecte a projeté son liquide dans l'estomac du prédateur. Lors d'une expérimentation faite avec deux espèces de crapauds asiatiques (Bufo japonicus et B. torrenticola) 43 % des carabidés attrapés par les crapauds ont été vomis peu après avoir été avalés et pour certains ont survécu (malgré un bain de plusieurs dizaines de minutes dans le suc digestif du crapaud). Quelques espèces d'amphibiens (ex : Rhinella marina semblent immunisés contre cette défense thermo-chimique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Espèces en Europe moyenne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brachinus crepitans (Linnaeus 1758) - le bombardier commun ;
 Brachinus explodens Duftschmid 1812 ;
@@ -575,9 +591,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (3 juil. 2012)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (3 juil. 2012) :
 Brachinus aabaaba Erwin ;
 Brachinus adustipennis Erwin ;
 Brachinus aeger Chaudoir ;
